--- a/Question_Sets/Role-specific skills/B2B Outside Sales.xlsx
+++ b/Question_Sets/Role-specific skills/B2B Outside Sales.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'A manufacturer is looking for a new supplier for assembly cables. They contacted your employer and you are meeting with their VP of supply chain, who is the person making the final decision on a new supplier. What is the most important step when preparing for your first meeting?', 'ques_type': 2, 'options': ['Creating a PowerPoint presentation to prove the company’s credibility.', 'Reviewing the VP’s LinkedIn profile to learn more about them.', 'Setting an objective for your meeting with an actionable next step.', 'Researching more information on the manufacturer’s company website.'], 'score': 'Setting an objective for your meeting with an actionable next step.'}, {'title': 'You have your second meeting scheduled with the VP of supply chain for a manufacturer who is considering buying from your employer. The VP is the main decision maker, and, in this meeting, you will be showing a demo of cables. When you arrive, the VP wants you to meet with the plant manager while the VP handles a disgruntled client call.How would you end the meeting with the plant manager?', 'ques_type': 2, 'options': ['Ask the plant manager how they like the cables and when they will be ready to order.', 'Request to revisit with the VP and the plant manager after the VP’s call.', 'Reschedule your sales meeting.', 'Ask to speak with the assembly line workers to see what they think of your samples.'], 'score': 'Request to revisit with the VP and the plant manager after the VP’s call.'}, {'title': 'As a sales representative for a company that supplies assembly cables, you are meeting with a plant manager. During your conversation, the plant manager expresses their satisfaction with the existing assembly cable vendor and questions the necessity of the changes proposed by their company’s VP of supply chain.\xa0Knowing the VP of supply chain is the decision maker, how do you respond?', 'ques_type': 2, 'options': ['“Wow! They never told me you were not aware of their decision.”', 'Ask who their current vendor is and tell them how yours is superior.', '“I had no idea. Do you mind telling me what you like about your current vendor?”', 'Ask them how much they pay, and offer a lower price.'], 'score': '“I had no idea. Do you mind telling me what you like about your current vendor?”'}, {'title': 'You work for a global assembly cable supplier. The VP of supply chain for a manufacturer has called you into a meeting to discuss becoming their assembly cable vendor. The plant manager is also present at the meeting and says that they like their current vendor, with whom they have a longstanding relationship. They express that the quality of your samples is different from their current vendor’s. You know that the difference in quality is minimal. What should you do to move the sale forward?', 'ques_type': 2, 'options': ['Explain that you don’t want to make anyone uncomfortable and leave the room so the plant manager and VP of supply chain can discuss the issue.', 'Let the VP handle the comment from the plant manager, as they know best why they called you in for a meeting.', 'Ask if they would like you to call your manager to see if you can find the right cable at the right price.', 'Explain to the plant manager that the VP of supply chain sees value in your ability to be a global supplier for them.'], 'score': 'Explain to the plant manager that the VP of supply chain sees value in your ability to be a global supplier for them.'}]</t>
+    <t>questions = [
+    {
+        "title": "A manufacturer is looking for a new supplier for assembly cables. They contacted your employer and you are meeting with their VP of supply chain, who is the person making the final decision on a new supplier. What is the most important step when preparing for your first meeting?",
+        "ques_type": 2,
+        "options": [
+            "Creating a PowerPoint presentation to prove the company\u2019s credibility.",
+            "Reviewing the VP\u2019s LinkedIn profile to learn more about them.",
+            "Setting an objective for your meeting with an actionable next step.",
+            "Researching more information on the manufacturer\u2019s company website."
+        ],
+        "score": "Setting an objective for your meeting with an actionable next step."
+    },
+    {
+        "title": "You have your second meeting scheduled with the VP of supply chain for a manufacturer who is considering buying from your employer. The VP is the main decision maker, and, in this meeting, you will be showing a demo of cables. When you arrive, the VP wants you to meet with the plant manager while the VP handles a disgruntled client call.How would you end the meeting with the plant manager?",
+        "ques_type": 2,
+        "options": [
+            "Ask the plant manager how they like the cables and when they will be ready to order.",
+            "Request to revisit with the VP and the plant manager after the VP\u2019s call.",
+            "Reschedule your sales meeting.",
+            "Ask to speak with the assembly line workers to see what they think of your samples."
+        ],
+        "score": "Request to revisit with the VP and the plant manager after the VP\u2019s call."
+    },
+    {
+        "title": "As a sales representative for a company that supplies assembly cables, you are meeting with a plant manager. During your conversation, the plant manager expresses their satisfaction with the existing assembly cable vendor and questions the necessity of the changes proposed by their company\u2019s VP of supply chain.\u00a0Knowing the VP of supply chain is the decision maker, how do you respond?",
+        "ques_type": 2,
+        "options": [
+            "\u201cWow! They never told me you were not aware of their decision.\u201d",
+            "Ask who their current vendor is and tell them how yours is superior.",
+            "\u201cI had no idea. Do you mind telling me what you like about your current vendor?\u201d",
+            "Ask them how much they pay, and offer a lower price."
+        ],
+        "score": "\u201cI had no idea. Do you mind telling me what you like about your current vendor?\u201d"
+    },
+    {
+        "title": "You work for a global assembly cable supplier. The VP of supply chain for a manufacturer has called you into a meeting to discuss becoming their assembly cable vendor. The plant manager is also present at the meeting and says that they like their current vendor, with whom they have a longstanding relationship. They express that the quality of your samples is different from their current vendor\u2019s. You know that the difference in quality is minimal. What should you do to move the sale forward?",
+        "ques_type": 2,
+        "options": [
+            "Explain that you don\u2019t want to make anyone uncomfortable and leave the room so the plant manager and VP of supply chain can discuss the issue.",
+            "Let the VP handle the comment from the plant manager, as they know best why they called you in for a meeting.",
+            "Ask if they would like you to call your manager to see if you can find the right cable at the right price.",
+            "Explain to the plant manager that the VP of supply chain sees value in your ability to be a global supplier for them."
+        ],
+        "score": "Explain to the plant manager that the VP of supply chain sees value in your ability to be a global supplier for them."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
